--- a/docs/xterm-256color.xlsx
+++ b/docs/xterm-256color.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Chapters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capabilities!$A$1:$F$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capabilities!$A$1:$G$183</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="638">
   <si>
     <t>dl1</t>
   </si>
@@ -1805,7 +1805,133 @@
     <t>vertical position #1 absolute</t>
   </si>
   <si>
-    <t>autowrap right margin</t>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Screen dimension</t>
+  </si>
+  <si>
+    <t>Local cursor movement</t>
+  </si>
+  <si>
+    <t>Param local cursor mov</t>
+  </si>
+  <si>
+    <t>Absolute cursor movement</t>
+  </si>
+  <si>
+    <t>Scrolling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting to add </t>
+  </si>
+  <si>
+    <t>Status lines (hs, tsl, fsl, dsl, eslok, wsl)</t>
+  </si>
+  <si>
+    <t>Add to screen</t>
+  </si>
+  <si>
+    <t>Delete from screen</t>
+  </si>
+  <si>
+    <t>Insert mode</t>
+  </si>
+  <si>
+    <t>Initialization &amp; reset</t>
+  </si>
+  <si>
+    <t>Program initialization</t>
+  </si>
+  <si>
+    <t>Setting and using tabs</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t>Standout mode</t>
+  </si>
+  <si>
+    <t>Underlining</t>
+  </si>
+  <si>
+    <t>Misc hightlight &amp; ACS</t>
+  </si>
+  <si>
+    <t>Bells</t>
+  </si>
+  <si>
+    <t>Cursor intensity</t>
+  </si>
+  <si>
+    <t>Special function keys</t>
+  </si>
+  <si>
+    <t>Extended function keys</t>
+  </si>
+  <si>
+    <t>Dim (dim)</t>
+  </si>
+  <si>
+    <t>Programmable function keys? (pfkey...)</t>
+  </si>
+  <si>
+    <t>Keypad keys</t>
+  </si>
+  <si>
+    <t>Keypad lower/upper left/right (ka1, kc3...)</t>
+  </si>
+  <si>
+    <t>Other special keys</t>
+  </si>
+  <si>
+    <t>Other special keys - clear, deleteline, ... (kclr, kdl1...)</t>
+  </si>
+  <si>
+    <t>Extended special keys</t>
+  </si>
+  <si>
+    <t>Padding capabilites</t>
+  </si>
+  <si>
+    <t>Glitch capabilities</t>
+  </si>
+  <si>
+    <t>Terminals with local printers</t>
+  </si>
+  <si>
+    <t>Line graphics</t>
+  </si>
+  <si>
+    <t>Meta mode</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>terminal does automargin</t>
+  </si>
+  <si>
+    <t>Graphics (create custom capabilities)</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>User strings</t>
+  </si>
+  <si>
+    <t>Mouse support</t>
+  </si>
+  <si>
+    <t>Memory locking</t>
+  </si>
+  <si>
+    <t>Italic (sitm, ritm)</t>
+  </si>
+  <si>
+    <t>Double underline</t>
   </si>
 </sst>
 </file>
@@ -2109,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2122,11 +2248,12 @@
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.8984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.296875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="6" width="21.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.296875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -2143,10 +2270,13 @@
         <v>484</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2163,10 +2293,13 @@
         <v>483</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2180,11 +2313,14 @@
         <v>485</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2198,10 +2334,13 @@
         <v>485</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2218,10 +2357,13 @@
         <v>481</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2238,10 +2380,13 @@
         <v>481</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2258,10 +2403,13 @@
         <v>476</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2278,10 +2426,13 @@
         <v>478</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2298,10 +2449,13 @@
         <v>480</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2318,10 +2472,13 @@
         <v>481</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2335,10 +2492,13 @@
         <v>485</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2355,10 +2515,13 @@
         <v>475</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2375,10 +2538,13 @@
         <v>477</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2395,10 +2561,13 @@
         <v>475</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2412,10 +2581,13 @@
         <v>485</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2432,10 +2604,13 @@
         <v>481</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2452,10 +2627,13 @@
         <v>478</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2472,10 +2650,13 @@
         <v>478</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2492,10 +2673,13 @@
         <v>478</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2512,10 +2696,13 @@
         <v>477</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -2532,10 +2719,13 @@
         <v>478</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -2552,10 +2742,13 @@
         <v>476</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2572,10 +2765,13 @@
         <v>478</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -2586,16 +2782,19 @@
         <v>365</v>
       </c>
       <c r="D24" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2612,10 +2811,13 @@
         <v>475</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2632,10 +2834,13 @@
         <v>475</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2652,10 +2857,13 @@
         <v>475</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -2672,10 +2880,13 @@
         <v>475</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2692,10 +2903,13 @@
         <v>475</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -2712,10 +2926,13 @@
         <v>475</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2732,10 +2949,13 @@
         <v>475</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2752,10 +2972,13 @@
         <v>475</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2772,10 +2995,13 @@
         <v>475</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2792,10 +3018,13 @@
         <v>475</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2812,10 +3041,13 @@
         <v>478</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -2832,10 +3064,13 @@
         <v>476</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -2852,10 +3087,13 @@
         <v>476</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -2872,10 +3110,13 @@
         <v>476</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2892,10 +3133,13 @@
         <v>476</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2912,10 +3156,13 @@
         <v>476</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -2932,10 +3179,13 @@
         <v>476</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2952,10 +3202,13 @@
         <v>476</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -2972,10 +3225,13 @@
         <v>476</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -2992,10 +3248,13 @@
         <v>478</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -3012,10 +3271,13 @@
         <v>475</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -3032,10 +3294,13 @@
         <v>475</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -3052,10 +3317,13 @@
         <v>477</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -3072,10 +3340,13 @@
         <v>477</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -3092,10 +3363,13 @@
         <v>476</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -3112,10 +3386,13 @@
         <v>476</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3132,10 +3409,13 @@
         <v>476</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -3152,10 +3432,13 @@
         <v>475</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3172,10 +3455,13 @@
         <v>475</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -3189,10 +3475,13 @@
         <v>485</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -3209,10 +3498,13 @@
         <v>478</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -3229,10 +3521,13 @@
         <v>477</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -3249,10 +3544,13 @@
         <v>479</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
@@ -3269,10 +3567,13 @@
         <v>479</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
@@ -3289,10 +3590,13 @@
         <v>479</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>101</v>
       </c>
@@ -3309,10 +3613,13 @@
         <v>479</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
@@ -3329,10 +3636,13 @@
         <v>479</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3349,10 +3659,13 @@
         <v>479</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -3369,10 +3682,13 @@
         <v>479</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -3389,10 +3705,13 @@
         <v>479</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>111</v>
       </c>
@@ -3409,10 +3728,13 @@
         <v>479</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>113</v>
       </c>
@@ -3429,10 +3751,13 @@
         <v>479</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>114</v>
       </c>
@@ -3449,10 +3774,13 @@
         <v>479</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
@@ -3469,10 +3797,13 @@
         <v>479</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>117</v>
       </c>
@@ -3489,10 +3820,13 @@
         <v>479</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>119</v>
       </c>
@@ -3509,10 +3843,13 @@
         <v>479</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>121</v>
       </c>
@@ -3529,10 +3866,13 @@
         <v>479</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
@@ -3549,10 +3889,13 @@
         <v>479</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>125</v>
       </c>
@@ -3569,10 +3912,13 @@
         <v>479</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -3589,10 +3935,13 @@
         <v>479</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
@@ -3609,10 +3958,13 @@
         <v>479</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -3629,10 +3981,13 @@
         <v>479</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -3649,10 +4004,13 @@
         <v>479</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -3669,10 +4027,13 @@
         <v>479</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -3689,10 +4050,13 @@
         <v>479</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -3709,10 +4073,13 @@
         <v>479</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -3729,10 +4096,13 @@
         <v>479</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -3749,10 +4119,13 @@
         <v>479</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -3769,10 +4142,13 @@
         <v>479</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
@@ -3789,10 +4165,13 @@
         <v>479</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -3809,10 +4188,13 @@
         <v>479</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
@@ -3829,10 +4211,13 @@
         <v>479</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>153</v>
       </c>
@@ -3849,10 +4234,13 @@
         <v>479</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -3869,10 +4257,13 @@
         <v>479</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>157</v>
       </c>
@@ -3889,10 +4280,13 @@
         <v>479</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>159</v>
       </c>
@@ -3909,10 +4303,13 @@
         <v>479</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>161</v>
       </c>
@@ -3929,10 +4326,13 @@
         <v>479</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>163</v>
       </c>
@@ -3949,10 +4349,13 @@
         <v>479</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -3969,10 +4372,13 @@
         <v>479</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>167</v>
       </c>
@@ -3989,10 +4395,13 @@
         <v>479</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>169</v>
       </c>
@@ -4009,10 +4418,13 @@
         <v>479</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>171</v>
       </c>
@@ -4029,10 +4441,13 @@
         <v>479</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>173</v>
       </c>
@@ -4049,10 +4464,13 @@
         <v>479</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>175</v>
       </c>
@@ -4069,10 +4487,13 @@
         <v>479</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>177</v>
       </c>
@@ -4089,10 +4510,13 @@
         <v>479</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>179</v>
       </c>
@@ -4109,10 +4533,13 @@
         <v>479</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>181</v>
       </c>
@@ -4129,10 +4556,13 @@
         <v>479</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>183</v>
       </c>
@@ -4149,10 +4579,13 @@
         <v>479</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>185</v>
       </c>
@@ -4169,10 +4602,13 @@
         <v>479</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>187</v>
       </c>
@@ -4189,10 +4625,13 @@
         <v>479</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>189</v>
       </c>
@@ -4209,10 +4648,13 @@
         <v>479</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>191</v>
       </c>
@@ -4229,10 +4671,13 @@
         <v>479</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>193</v>
       </c>
@@ -4249,10 +4694,13 @@
         <v>479</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>195</v>
       </c>
@@ -4269,10 +4717,13 @@
         <v>479</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>197</v>
       </c>
@@ -4289,10 +4740,13 @@
         <v>479</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>199</v>
       </c>
@@ -4309,10 +4763,13 @@
         <v>479</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>201</v>
       </c>
@@ -4329,10 +4786,13 @@
         <v>479</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>203</v>
       </c>
@@ -4349,10 +4809,13 @@
         <v>479</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>205</v>
       </c>
@@ -4369,10 +4832,13 @@
         <v>479</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>207</v>
       </c>
@@ -4389,10 +4855,13 @@
         <v>479</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>209</v>
       </c>
@@ -4409,10 +4878,13 @@
         <v>479</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>211</v>
       </c>
@@ -4429,10 +4901,13 @@
         <v>479</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>213</v>
       </c>
@@ -4449,10 +4924,13 @@
         <v>479</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
@@ -4469,10 +4947,13 @@
         <v>479</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>217</v>
       </c>
@@ -4489,10 +4970,13 @@
         <v>479</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>219</v>
       </c>
@@ -4509,10 +4993,13 @@
         <v>479</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>221</v>
       </c>
@@ -4529,10 +5016,13 @@
         <v>479</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>223</v>
       </c>
@@ -4549,10 +5039,13 @@
         <v>479</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>225</v>
       </c>
@@ -4569,10 +5062,13 @@
         <v>479</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
@@ -4589,10 +5085,13 @@
         <v>479</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>229</v>
       </c>
@@ -4609,10 +5108,13 @@
         <v>479</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>231</v>
       </c>
@@ -4629,10 +5131,13 @@
         <v>479</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>233</v>
       </c>
@@ -4649,10 +5154,13 @@
         <v>479</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>235</v>
       </c>
@@ -4669,10 +5177,13 @@
         <v>479</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>237</v>
       </c>
@@ -4689,10 +5200,13 @@
         <v>479</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>239</v>
       </c>
@@ -4709,10 +5223,13 @@
         <v>479</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>241</v>
       </c>
@@ -4729,10 +5246,13 @@
         <v>479</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>243</v>
       </c>
@@ -4749,10 +5269,13 @@
         <v>479</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -4769,10 +5292,13 @@
         <v>479</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
@@ -4789,10 +5315,13 @@
         <v>479</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>249</v>
       </c>
@@ -4809,10 +5338,13 @@
         <v>479</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>251</v>
       </c>
@@ -4829,10 +5361,13 @@
         <v>479</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>253</v>
       </c>
@@ -4849,10 +5384,13 @@
         <v>479</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>255</v>
       </c>
@@ -4869,10 +5407,13 @@
         <v>479</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>257</v>
       </c>
@@ -4889,10 +5430,13 @@
         <v>479</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>259</v>
       </c>
@@ -4909,10 +5453,13 @@
         <v>479</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>261</v>
       </c>
@@ -4926,10 +5473,13 @@
         <v>485</v>
       </c>
       <c r="F141" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>262</v>
       </c>
@@ -4946,10 +5496,13 @@
         <v>479</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>264</v>
       </c>
@@ -4966,10 +5519,13 @@
         <v>479</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>266</v>
       </c>
@@ -4986,10 +5542,13 @@
         <v>479</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>268</v>
       </c>
@@ -5006,10 +5565,13 @@
         <v>481</v>
       </c>
       <c r="F145" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>270</v>
       </c>
@@ -5026,10 +5588,13 @@
         <v>481</v>
       </c>
       <c r="F146" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
@@ -5046,10 +5611,13 @@
         <v>481</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>274</v>
       </c>
@@ -5062,8 +5630,11 @@
       <c r="E148" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>276</v>
       </c>
@@ -5076,8 +5647,11 @@
       <c r="E149" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>278</v>
       </c>
@@ -5091,10 +5665,13 @@
         <v>485</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>280</v>
       </c>
@@ -5111,10 +5688,13 @@
         <v>475</v>
       </c>
       <c r="F151" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>282</v>
       </c>
@@ -5131,10 +5711,13 @@
         <v>478</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>284</v>
       </c>
@@ -5151,10 +5734,13 @@
         <v>475</v>
       </c>
       <c r="F153" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>286</v>
       </c>
@@ -5171,10 +5757,13 @@
         <v>475</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>288</v>
       </c>
@@ -5191,10 +5780,13 @@
         <v>478</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>290</v>
       </c>
@@ -5211,10 +5803,13 @@
         <v>477</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>292</v>
       </c>
@@ -5231,10 +5826,13 @@
         <v>477</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>294</v>
       </c>
@@ -5251,10 +5849,13 @@
         <v>476</v>
       </c>
       <c r="F158" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>296</v>
       </c>
@@ -5271,10 +5872,13 @@
         <v>479</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>298</v>
       </c>
@@ -5291,10 +5895,13 @@
         <v>481</v>
       </c>
       <c r="F160" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>300</v>
       </c>
@@ -5311,10 +5918,13 @@
         <v>478</v>
       </c>
       <c r="F161" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>302</v>
       </c>
@@ -5331,10 +5941,13 @@
         <v>478</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>304</v>
       </c>
@@ -5351,10 +5964,13 @@
         <v>477</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>306</v>
       </c>
@@ -5371,10 +5987,13 @@
         <v>477</v>
       </c>
       <c r="F164" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>307</v>
       </c>
@@ -5391,10 +6010,13 @@
         <v>475</v>
       </c>
       <c r="F165" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>309</v>
       </c>
@@ -5408,10 +6030,13 @@
         <v>485</v>
       </c>
       <c r="F166" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>311</v>
       </c>
@@ -5425,10 +6050,13 @@
         <v>485</v>
       </c>
       <c r="F167" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>313</v>
       </c>
@@ -5445,10 +6073,13 @@
         <v>478</v>
       </c>
       <c r="F168" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>315</v>
       </c>
@@ -5465,10 +6096,13 @@
         <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>317</v>
       </c>
@@ -5485,10 +6119,13 @@
         <v>478</v>
       </c>
       <c r="F170" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>319</v>
       </c>
@@ -5505,10 +6142,13 @@
         <v>477</v>
       </c>
       <c r="F171" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>321</v>
       </c>
@@ -5525,10 +6165,13 @@
         <v>477</v>
       </c>
       <c r="F172" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>323</v>
       </c>
@@ -5545,10 +6188,13 @@
         <v>476</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>325</v>
       </c>
@@ -5565,10 +6211,13 @@
         <v>479</v>
       </c>
       <c r="F174" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>327</v>
       </c>
@@ -5585,10 +6234,13 @@
         <v>481</v>
       </c>
       <c r="F175" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>329</v>
       </c>
@@ -5605,10 +6257,13 @@
         <v>478</v>
       </c>
       <c r="F176" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>330</v>
       </c>
@@ -5625,10 +6280,13 @@
         <v>478</v>
       </c>
       <c r="F177" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>332</v>
       </c>
@@ -5645,10 +6303,13 @@
         <v>477</v>
       </c>
       <c r="F178" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>334</v>
       </c>
@@ -5662,10 +6323,13 @@
         <v>485</v>
       </c>
       <c r="F179" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>336</v>
       </c>
@@ -5679,10 +6343,13 @@
         <v>485</v>
       </c>
       <c r="F180" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>338</v>
       </c>
@@ -5696,10 +6363,13 @@
         <v>485</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>340</v>
       </c>
@@ -5713,10 +6383,13 @@
         <v>485</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>342</v>
       </c>
@@ -5733,73 +6406,121 @@
         <v>475</v>
       </c>
       <c r="F183" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="G187" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="G188" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>568</v>
       </c>
     </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F183"/>
+  <autoFilter ref="A1:G183"/>
   <conditionalFormatting sqref="D2:D183">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5809,7 +6530,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/docs/xterm-256color.xlsx
+++ b/docs/xterm-256color.xlsx
@@ -2235,10 +2235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2276,7 +2277,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2321,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>101</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>111</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>113</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>114</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>117</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>119</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>121</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>125</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>147</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>151</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>153</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>155</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>157</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>159</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>161</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>163</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>167</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>169</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>171</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>173</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>175</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>177</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>179</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>181</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>183</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>185</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>187</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>189</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>191</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>193</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>195</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>197</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>199</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>201</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>203</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>205</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>207</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>209</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>211</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>213</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>217</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>219</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>221</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>223</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>225</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>229</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>231</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>233</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>235</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>237</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>239</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>241</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>243</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>249</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>251</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>253</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>255</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>257</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>259</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>261</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>262</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>264</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>266</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>268</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>270</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>274</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>276</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>278</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>280</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>282</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>284</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>286</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>288</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>290</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>292</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>294</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>296</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>298</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>300</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>302</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>304</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>306</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>307</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>309</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>311</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>313</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>315</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>317</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>319</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>321</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>323</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>325</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>327</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>329</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>330</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>332</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>334</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>336</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>338</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>340</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>342</v>
       </c>
@@ -6518,7 +6519,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G183"/>
+  <autoFilter ref="A1:G183">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Param local cursor mov"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D2:D183">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/docs/xterm-256color.xlsx
+++ b/docs/xterm-256color.xlsx
@@ -2089,7 +2089,7 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="195:195"/>
+      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2498,7 +2498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>146</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>225</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>493</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>505</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>558</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>566</v>
       </c>
@@ -6436,7 +6436,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val="Misc hightlight &amp; ACS"/>
+        <customFilter operator="equal" val="Cursor intensity"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -6481,7 +6481,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="195:195 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/xterm-256color.xlsx
+++ b/docs/xterm-256color.xlsx
@@ -2083,13 +2083,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>170</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>174</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>178</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>182</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>186</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>190</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>198</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>201</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>205</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>210</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>214</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>221</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>225</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>229</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>234</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>240</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>244</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>248</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>252</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>260</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>264</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>268</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>273</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>277</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>284</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>288</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>292</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>296</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>300</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>304</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>308</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>313</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>316</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>318</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>320</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>322</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>324</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>328</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>330</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>332</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>334</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>336</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>338</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>340</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>342</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>344</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>346</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>348</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>350</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>352</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>354</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>356</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>358</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>360</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>362</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>364</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>366</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>368</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>370</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>372</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>374</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>376</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>378</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>380</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>382</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>384</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>386</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>388</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>390</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>392</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>394</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>396</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>398</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>400</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>402</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>404</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>406</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>408</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>410</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>412</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>414</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>416</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>418</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>420</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>422</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>424</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>426</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>428</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>430</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>432</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>434</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>436</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>438</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>442</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>446</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>450</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>454</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>458</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>462</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>466</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>470</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>474</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>478</v>
       </c>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>482</v>
       </c>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>485</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>489</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>493</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>497</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>501</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>505</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>509</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>514</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>519</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>523</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>527</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>531</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>535</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>540</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>544</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>546</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>550</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>554</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>558</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>566</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>570</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>574</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>578</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>582</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>586</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>590</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>593</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>597</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>601</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>606</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>610</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>614</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>618</v>
       </c>
@@ -6416,30 +6416,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G183">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Special terminals"/>
-        <filter val="Special effects"/>
-        <filter val="Screen/cursor"/>
-        <filter val="Other"/>
-        <filter val="Padding"/>
-        <filter val="Misc"/>
-        <filter val="Init/reset"/>
-        <filter val="Edit screen"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="11"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Cursor intensity"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G183"/>
   <conditionalFormatting sqref="D2:D183">
     <cfRule type="colorScale" priority="2">
       <colorScale>
